--- a/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_double.xlsx
+++ b/_pipeline/input_temp_db/Rekap_BRCA12_Somatic_MAF_20210616_double.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F2AE5F-A120-4CE6-9748-718AEA70301F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12915"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="525">
   <si>
     <t>Rundate</t>
   </si>
@@ -1588,19 +1593,16 @@
   </si>
   <si>
     <t>93</t>
+  </si>
+  <si>
+    <t>dummy_R2102170085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,353 +1617,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1984,251 +1649,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2236,61 +1659,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2575,21 +1954,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2029,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2706,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -2762,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -2810,40 +2189,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:18">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:18">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:18">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:18">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:18">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:18">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:18">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:18">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:18">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:18">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:18">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:18">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
@@ -3403,22 +2782,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3273,7 @@
         <v>34</v>
       </c>
       <c r="L9">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -4066,7 +3441,7 @@
         <v>34</v>
       </c>
       <c r="L12">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
@@ -4906,7 +4281,7 @@
         <v>34</v>
       </c>
       <c r="L27">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="M27" t="s">
         <v>35</v>
@@ -5018,7 +4393,7 @@
         <v>34</v>
       </c>
       <c r="L29">
-        <v>8.38</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="M29" t="s">
         <v>35</v>
@@ -5074,7 +4449,7 @@
         <v>40</v>
       </c>
       <c r="L30">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="M30" t="s">
         <v>35</v>
@@ -5186,7 +4561,7 @@
         <v>34</v>
       </c>
       <c r="L32">
-        <v>16.24</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="M32" t="s">
         <v>35</v>
@@ -5858,7 +5233,7 @@
         <v>34</v>
       </c>
       <c r="L44">
-        <v>9.03</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="M44" t="s">
         <v>35</v>
@@ -5914,7 +5289,7 @@
         <v>34</v>
       </c>
       <c r="L45">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M45" t="s">
         <v>35</v>
@@ -6026,7 +5401,7 @@
         <v>34</v>
       </c>
       <c r="L47">
-        <v>9.12</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="M47" t="s">
         <v>35</v>
@@ -6082,7 +5457,7 @@
         <v>34</v>
       </c>
       <c r="L48">
-        <v>9.87</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="M48" t="s">
         <v>35</v>
@@ -6754,7 +6129,7 @@
         <v>34</v>
       </c>
       <c r="L60">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="M60" t="s">
         <v>35</v>
@@ -6978,7 +6353,7 @@
         <v>34</v>
       </c>
       <c r="L64">
-        <v>9.87</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="M64" t="s">
         <v>35</v>
@@ -7426,7 +6801,7 @@
         <v>34</v>
       </c>
       <c r="L72">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M72" t="s">
         <v>35</v>
@@ -8266,7 +7641,7 @@
         <v>70</v>
       </c>
       <c r="L87">
-        <v>9.71</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="M87" t="s">
         <v>35</v>
@@ -8770,7 +8145,7 @@
         <v>34</v>
       </c>
       <c r="L96">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="M96" t="s">
         <v>35</v>
@@ -9554,7 +8929,7 @@
         <v>429</v>
       </c>
       <c r="L110">
-        <v>38.87</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="M110" t="s">
         <v>35</v>
@@ -9666,7 +9041,7 @@
         <v>70</v>
       </c>
       <c r="L112">
-        <v>9.21</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="M112" t="s">
         <v>35</v>
@@ -10114,7 +9489,7 @@
         <v>70</v>
       </c>
       <c r="L120">
-        <v>33.12</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="M120" t="s">
         <v>35</v>
@@ -10249,6 +9624,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>